--- a/Output/Steelhead_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y107"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,12 +568,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -847,12 +847,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -940,12 +940,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1312,12 +1312,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1392,10 +1392,10 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U11">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1485,10 +1485,10 @@
         <v>1</v>
       </c>
       <c r="T12">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U12">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1498,12 +1498,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1578,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U13">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1591,12 +1591,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1684,12 +1684,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1777,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1870,12 +1870,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1963,12 +1963,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2149,12 +2149,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2242,12 +2242,12 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2335,12 +2335,12 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2428,12 +2428,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Icing</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2593,13 +2593,13 @@
         <v>2</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U24">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2607,9 +2607,14 @@
       <c r="W24">
         <v>1</v>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2681,13 +2686,13 @@
         <v>2</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U25">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V25">
         <v>5</v>
@@ -2695,9 +2700,14 @@
       <c r="W25">
         <v>1</v>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2795,12 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2888,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2976,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3064,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3152,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3214,13 +3224,13 @@
         <v>4</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U31">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V31">
         <v>5</v>
@@ -3228,14 +3238,9 @@
       <c r="W31">
         <v>1</v>
       </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3328,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3416,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3504,12 +3509,12 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3597,29 +3602,29 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mad River Lower 04</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3638,25 +3643,25 @@
         </is>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>5</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -3665,22 +3670,22 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
       <c r="R36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="U36">
-        <v>0.7777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V36">
         <v>5</v>
@@ -3690,19 +3695,19 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 02</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3767,13 +3772,13 @@
         <v>1</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U37">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V37">
         <v>5</v>
@@ -3783,19 +3788,19 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3805,7 +3810,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3827,19 +3832,19 @@
         <v>3</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>3</v>
@@ -3848,25 +3853,25 @@
         <v>3</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="U38">
-        <v>0.5333333333333333</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V38">
         <v>5</v>
@@ -3876,19 +3881,19 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3898,7 +3903,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3920,16 +3925,16 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>5</v>
@@ -3941,25 +3946,25 @@
         <v>3</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="U39">
-        <v>0.5333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V39">
         <v>5</v>
@@ -3969,19 +3974,19 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 05</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3991,7 +3996,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4010,49 +4015,49 @@
         </is>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>3</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U40">
-        <v>0.5333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4062,19 +4067,19 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4103,37 +4108,37 @@
         </is>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>5</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41">
         <v>5</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O41">
         <v>5</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R41">
         <v>4</v>
@@ -4142,10 +4147,10 @@
         <v>1</v>
       </c>
       <c r="T41">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U41">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4155,19 +4160,19 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4211,7 +4216,7 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>3</v>
@@ -4220,25 +4225,25 @@
         <v>3</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P42">
         <v>5</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="U42">
-        <v>0.7333333333333333</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V42">
         <v>5</v>
@@ -4248,19 +4253,19 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4289,49 +4294,49 @@
         </is>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>5</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43">
         <v>1</v>
       </c>
       <c r="R43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T43">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="U43">
-        <v>0.6222222222222222</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4341,19 +4346,19 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Flow- Scour</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4382,49 +4387,49 @@
         </is>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <v>5</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>3</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="U44">
-        <v>0.8</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4434,19 +4439,19 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4475,49 +4480,49 @@
         </is>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <v>5</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>3</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T45">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="U45">
-        <v>0.6222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4527,19 +4532,19 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4568,13 +4573,13 @@
         </is>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46">
         <v>5</v>
@@ -4583,34 +4588,34 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N46">
         <v>1</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>1</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S46">
         <v>3</v>
       </c>
       <c r="T46">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U46">
-        <v>0.4222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4620,19 +4625,19 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4676,34 +4681,34 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>1</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S47">
         <v>3</v>
       </c>
       <c r="T47">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U47">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V47">
         <v>5</v>
@@ -4713,19 +4718,19 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4769,34 +4774,34 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>1</v>
       </c>
       <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
         <v>2</v>
       </c>
-      <c r="S48">
-        <v>3</v>
-      </c>
       <c r="T48">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U48">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -4806,19 +4811,19 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4828,7 +4833,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4856,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4868,10 +4873,10 @@
         <v>3</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -4883,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T49">
         <v>25</v>
@@ -4899,19 +4904,19 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4921,7 +4926,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4940,16 +4945,16 @@
         </is>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -4958,7 +4963,7 @@
         <v>5</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N50">
         <v>3</v>
@@ -4976,13 +4981,13 @@
         <v>1</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T50">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U50">
-        <v>0.4888888888888889</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -4992,29 +4997,29 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5033,49 +5038,49 @@
         </is>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J51">
         <v>5</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="U51">
-        <v>0.4666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="V51">
         <v>5</v>
@@ -5085,29 +5090,29 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Methow River McFarland 01</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5135,13 +5140,13 @@
         <v>3</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M52">
         <v>3</v>
@@ -5153,22 +5158,22 @@
         <v>1</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T52">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U52">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V52">
         <v>5</v>
@@ -5178,29 +5183,29 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Methow River McFarland 02</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5228,13 +5233,13 @@
         <v>3</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M53">
         <v>3</v>
@@ -5246,22 +5251,22 @@
         <v>1</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U53">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V53">
         <v>5</v>
@@ -5271,29 +5276,29 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Methow River McFarland 03</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5321,13 +5326,13 @@
         <v>3</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M54">
         <v>3</v>
@@ -5339,22 +5344,22 @@
         <v>1</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U54">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V54">
         <v>5</v>
@@ -5364,29 +5369,29 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Methow River McFarland 04</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5405,49 +5410,49 @@
         </is>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55">
         <v>1</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="U55">
-        <v>0.5333333333333333</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V55">
         <v>5</v>
@@ -5457,29 +5462,29 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5498,49 +5503,49 @@
         </is>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q56">
         <v>1</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T56">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U56">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V56">
         <v>5</v>
@@ -5550,29 +5555,29 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5606,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M57">
         <v>3</v>
@@ -5615,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -5627,13 +5632,13 @@
         <v>1</v>
       </c>
       <c r="S57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T57">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U57">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5643,19 +5648,19 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5693,10 +5698,10 @@
         <v>3</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>3</v>
@@ -5708,25 +5713,25 @@
         <v>3</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S58">
         <v>1</v>
       </c>
       <c r="T58">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U58">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V58">
         <v>5</v>
@@ -5736,19 +5741,19 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5786,10 +5791,10 @@
         <v>3</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>3</v>
@@ -5801,25 +5806,25 @@
         <v>3</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S59">
         <v>1</v>
       </c>
       <c r="T59">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U59">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -5829,19 +5834,19 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5879,13 +5884,13 @@
         <v>3</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M60">
         <v>3</v>
@@ -5894,14 +5899,11 @@
         <v>3</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60">
         <v>3</v>
       </c>
-      <c r="Q60">
-        <v>3</v>
-      </c>
       <c r="R60">
         <v>3</v>
       </c>
@@ -5909,10 +5911,10 @@
         <v>1</v>
       </c>
       <c r="T60">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U60">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -5922,29 +5924,29 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5978,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -5990,22 +5992,22 @@
         <v>3</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U61">
-        <v>0.4222222222222222</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6015,29 +6017,29 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -6068,16 +6070,16 @@
         <v>5</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62">
         <v>3</v>
@@ -6095,10 +6097,10 @@
         <v>1</v>
       </c>
       <c r="T62">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U62">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6108,29 +6110,29 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6149,49 +6151,49 @@
         </is>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <v>3</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U63">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6201,29 +6203,29 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6242,49 +6244,49 @@
         </is>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>3</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q64">
         <v>1</v>
       </c>
       <c r="R64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U64">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6294,29 +6296,29 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6335,49 +6337,49 @@
         </is>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <v>3</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q65">
         <v>1</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="U65">
-        <v>0.5111111111111111</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6387,29 +6389,29 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6428,13 +6430,13 @@
         </is>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -6443,31 +6445,34 @@
         <v>3</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O66">
         <v>3</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
       </c>
       <c r="R66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T66">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="U66">
-        <v>0.6444444444444445</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6475,16 +6480,21 @@
       <c r="W66">
         <v>1</v>
       </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6513,49 +6523,49 @@
         </is>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="U67">
-        <v>0.3555555555555556</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6565,19 +6575,19 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6606,25 +6616,25 @@
         </is>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68">
         <v>5</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68">
         <v>3</v>
@@ -6633,22 +6643,22 @@
         <v>3</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>1</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U68">
-        <v>0.4666666666666667</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -6658,19 +6668,19 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Scour</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -6699,49 +6709,49 @@
         </is>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O69">
         <v>1</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>1</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U69">
-        <v>0.3777777777777778</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -6751,19 +6761,19 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6792,13 +6802,13 @@
         </is>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -6807,16 +6817,16 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70">
         <v>3</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P70">
         <v>3</v>
@@ -6831,10 +6841,10 @@
         <v>1</v>
       </c>
       <c r="T70">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="U70">
-        <v>0.3777777777777778</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -6844,19 +6854,19 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6885,49 +6895,49 @@
         </is>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>3</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N71">
         <v>3</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <v>1</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="U71">
-        <v>0.3777777777777778</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -6937,19 +6947,19 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6959,7 +6969,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6978,49 +6988,49 @@
         </is>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="U72">
-        <v>0.3333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7030,19 +7040,19 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7052,7 +7062,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -7080,19 +7090,19 @@
         <v>3</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M73">
         <v>3</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O73">
         <v>5</v>
@@ -7110,10 +7120,10 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="U73">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7123,19 +7133,19 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7145,7 +7155,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -7164,25 +7174,25 @@
         </is>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N74">
         <v>3</v>
@@ -7191,22 +7201,22 @@
         <v>3</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U74">
-        <v>0.5111111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7216,19 +7226,19 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7238,7 +7248,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -7257,10 +7267,10 @@
         </is>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -7278,28 +7288,28 @@
         <v>5</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U75">
-        <v>0.4888888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7309,19 +7319,19 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7331,7 +7341,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7350,16 +7360,16 @@
         </is>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -7368,7 +7378,7 @@
         <v>5</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N76">
         <v>3</v>
@@ -7380,19 +7390,19 @@
         <v>3</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U76">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7402,19 +7412,19 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7424,7 +7434,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -7443,16 +7453,16 @@
         </is>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7461,31 +7471,31 @@
         <v>5</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q77">
         <v>1</v>
       </c>
       <c r="R77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="U77">
-        <v>0.5111111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7495,19 +7505,19 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7548,37 +7558,37 @@
         <v>5</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M78">
         <v>3</v>
       </c>
       <c r="N78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q78">
         <v>3</v>
       </c>
       <c r="R78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U78">
-        <v>0.7333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -7588,19 +7598,19 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Scour</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7641,7 +7651,7 @@
         <v>5</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>5</v>
@@ -7650,28 +7660,28 @@
         <v>3</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q79">
         <v>3</v>
       </c>
       <c r="R79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="U79">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="V79">
         <v>5</v>
@@ -7681,29 +7691,29 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Flow- Scour</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -7722,25 +7732,25 @@
         </is>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L80">
         <v>5</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N80">
         <v>3</v>
@@ -7749,16 +7759,13 @@
         <v>3</v>
       </c>
       <c r="P80">
-        <v>3</v>
-      </c>
-      <c r="Q80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T80">
         <v>28</v>
@@ -7774,29 +7781,29 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -7815,25 +7822,25 @@
         </is>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81">
         <v>5</v>
       </c>
       <c r="M81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N81">
         <v>3</v>
@@ -7842,16 +7849,13 @@
         <v>3</v>
       </c>
       <c r="P81">
-        <v>3</v>
-      </c>
-      <c r="Q81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T81">
         <v>28</v>
@@ -7867,29 +7871,29 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -7908,13 +7912,13 @@
         </is>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -7926,10 +7930,10 @@
         <v>5</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O82">
         <v>3</v>
@@ -7944,13 +7948,13 @@
         <v>3</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T82">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="U82">
-        <v>0.6222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -7960,29 +7964,29 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8001,13 +8005,13 @@
         </is>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J83">
         <v>5</v>
@@ -8019,31 +8023,31 @@
         <v>5</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q83">
         <v>1</v>
       </c>
       <c r="R83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="U83">
-        <v>0.7777777777777778</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8053,29 +8057,29 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -8112,7 +8116,7 @@
         <v>5</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <v>3</v>
@@ -8121,22 +8125,22 @@
         <v>1</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q84">
         <v>3</v>
       </c>
       <c r="R84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="U84">
-        <v>0.6</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V84">
         <v>5</v>
@@ -8146,29 +8150,29 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8187,13 +8191,13 @@
         </is>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -8205,31 +8209,31 @@
         <v>5</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85">
         <v>1</v>
       </c>
       <c r="P85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q85">
         <v>3</v>
       </c>
       <c r="R85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="U85">
-        <v>0.6</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8239,19 +8243,19 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8280,16 +8284,16 @@
         </is>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K86">
         <v>3</v>
@@ -8307,19 +8311,22 @@
         <v>3</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Q86">
+        <v>3</v>
       </c>
       <c r="R86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S86">
         <v>1</v>
       </c>
       <c r="T86">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U86">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8329,19 +8336,19 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8370,19 +8377,19 @@
         </is>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L87">
         <v>5</v>
@@ -8397,10 +8404,13 @@
         <v>3</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Q87">
+        <v>5</v>
       </c>
       <c r="R87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -8419,19 +8429,19 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8463,13 +8473,13 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -8478,10 +8488,10 @@
         <v>5</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O88">
         <v>3</v>
@@ -8499,10 +8509,10 @@
         <v>1</v>
       </c>
       <c r="T88">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="U88">
-        <v>0.4222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V88">
         <v>5</v>
@@ -8512,19 +8522,19 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -8534,7 +8544,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -8553,49 +8563,49 @@
         </is>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>3</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
         <v>2</v>
       </c>
-      <c r="J89">
-        <v>5</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89">
-        <v>5</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>3</v>
-      </c>
-      <c r="P89">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>1</v>
-      </c>
-      <c r="R89">
-        <v>1</v>
-      </c>
       <c r="S89">
         <v>1</v>
       </c>
       <c r="T89">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U89">
-        <v>0.4444444444444444</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V89">
         <v>5</v>
@@ -8605,19 +8615,19 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -8627,7 +8637,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -8646,49 +8656,49 @@
         </is>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>5</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>3</v>
+      </c>
+      <c r="P90">
+        <v>3</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
         <v>2</v>
       </c>
-      <c r="J90">
-        <v>5</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>5</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>3</v>
-      </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
-      <c r="R90">
-        <v>1</v>
-      </c>
       <c r="S90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T90">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U90">
-        <v>0.5111111111111111</v>
+        <v>0.6</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -8698,19 +8708,19 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -8720,7 +8730,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -8742,10 +8752,10 @@
         <v>3</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J91">
         <v>5</v>
@@ -8754,34 +8764,34 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R91">
         <v>2</v>
       </c>
       <c r="S91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T91">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U91">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -8791,19 +8801,19 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -8813,7 +8823,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -8835,40 +8845,40 @@
         <v>5</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P92">
         <v>3</v>
       </c>
       <c r="Q92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T92">
         <v>26</v>
@@ -8884,19 +8894,19 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -8906,7 +8916,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -8928,25 +8938,25 @@
         <v>5</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J93">
         <v>3</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L93">
         <v>5</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O93">
         <v>3</v>
@@ -8955,19 +8965,19 @@
         <v>3</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T93">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U93">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -8975,16 +8985,21 @@
       <c r="W93">
         <v>1</v>
       </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -8994,7 +9009,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -9016,13 +9031,13 @@
         <v>5</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -9043,19 +9058,19 @@
         <v>3</v>
       </c>
       <c r="Q94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T94">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U94">
-        <v>0.6444444444444445</v>
+        <v>0.6</v>
       </c>
       <c r="V94">
         <v>5</v>
@@ -9065,19 +9080,19 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9087,7 +9102,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -9109,10 +9124,10 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -9127,28 +9142,28 @@
         <v>3</v>
       </c>
       <c r="N95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O95">
         <v>3</v>
       </c>
       <c r="P95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T95">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="U95">
-        <v>0.6444444444444445</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V95">
         <v>5</v>
@@ -9158,19 +9173,19 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9180,7 +9195,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -9199,13 +9214,13 @@
         </is>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -9217,7 +9232,7 @@
         <v>5</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -9226,22 +9241,22 @@
         <v>3</v>
       </c>
       <c r="P96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T96">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U96">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V96">
         <v>5</v>
@@ -9251,19 +9266,19 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9273,7 +9288,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -9292,13 +9307,13 @@
         </is>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -9310,7 +9325,7 @@
         <v>5</v>
       </c>
       <c r="M97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -9319,22 +9334,22 @@
         <v>3</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q97">
         <v>1</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T97">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="U97">
-        <v>0.6666666666666666</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V97">
         <v>5</v>
@@ -9344,19 +9359,19 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9366,7 +9381,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -9385,13 +9400,13 @@
         </is>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -9403,7 +9418,7 @@
         <v>5</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -9412,22 +9427,22 @@
         <v>3</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q98">
         <v>1</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T98">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="U98">
-        <v>0.6666666666666666</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V98">
         <v>5</v>
@@ -9437,19 +9452,19 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -9459,7 +9474,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -9481,13 +9496,13 @@
         <v>5</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -9496,10 +9511,10 @@
         <v>5</v>
       </c>
       <c r="M99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O99">
         <v>3</v>
@@ -9514,13 +9529,13 @@
         <v>2</v>
       </c>
       <c r="S99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T99">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U99">
-        <v>0.7333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="V99">
         <v>5</v>
@@ -9530,19 +9545,19 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -9552,7 +9567,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -9571,13 +9586,13 @@
         </is>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>5</v>
       </c>
       <c r="I100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J100">
         <v>3</v>
@@ -9607,13 +9622,13 @@
         <v>2</v>
       </c>
       <c r="S100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T100">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U100">
-        <v>0.7333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V100">
         <v>5</v>
@@ -9623,663 +9638,12 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Off-Channel- Side-Channels</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 06</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G101">
-        <v>5</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
-      </c>
-      <c r="I101">
-        <v>4</v>
-      </c>
-      <c r="J101">
-        <v>5</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101">
-        <v>5</v>
-      </c>
-      <c r="M101">
-        <v>3</v>
-      </c>
-      <c r="N101">
-        <v>3</v>
-      </c>
-      <c r="O101">
-        <v>3</v>
-      </c>
-      <c r="P101">
-        <v>3</v>
-      </c>
-      <c r="Q101">
-        <v>1</v>
-      </c>
-      <c r="R101">
-        <v>2</v>
-      </c>
-      <c r="S101">
-        <v>5</v>
-      </c>
-      <c r="T101">
-        <v>31</v>
-      </c>
-      <c r="U101">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="V101">
-        <v>5</v>
-      </c>
-      <c r="W101">
-        <v>1</v>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>Cover- Boulders</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Wenatchee River Nahahum 07</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102">
-        <v>5</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102">
-        <v>5</v>
-      </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102">
-        <v>3</v>
-      </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
-      <c r="Q102">
-        <v>1</v>
-      </c>
-      <c r="R102">
-        <v>1</v>
-      </c>
-      <c r="S102">
-        <v>4</v>
-      </c>
-      <c r="T102">
-        <v>24</v>
-      </c>
-      <c r="U102">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V102">
-        <v>5</v>
-      </c>
-      <c r="W102">
-        <v>1</v>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Icing</t>
-        </is>
-      </c>
-      <c r="Y102" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 01</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103">
-        <v>5</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103">
-        <v>5</v>
-      </c>
-      <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-      <c r="O103">
-        <v>3</v>
-      </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="Q103">
-        <v>1</v>
-      </c>
-      <c r="R103">
-        <v>1</v>
-      </c>
-      <c r="S103">
-        <v>4</v>
-      </c>
-      <c r="T103">
-        <v>24</v>
-      </c>
-      <c r="U103">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V103">
-        <v>5</v>
-      </c>
-      <c r="W103">
-        <v>1</v>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Icing</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 02</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>3</v>
-      </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
-      <c r="J104">
-        <v>5</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104">
-        <v>5</v>
-      </c>
-      <c r="M104">
-        <v>3</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="O104">
-        <v>3</v>
-      </c>
-      <c r="P104">
-        <v>1</v>
-      </c>
-      <c r="Q104">
-        <v>1</v>
-      </c>
-      <c r="R104">
-        <v>1</v>
-      </c>
-      <c r="S104">
-        <v>4</v>
-      </c>
-      <c r="T104">
-        <v>25</v>
-      </c>
-      <c r="U104">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="V104">
-        <v>5</v>
-      </c>
-      <c r="W104">
-        <v>1</v>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>Cover- Boulders,Icing</t>
-        </is>
-      </c>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 03</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>3</v>
-      </c>
-      <c r="I105">
-        <v>2</v>
-      </c>
-      <c r="J105">
-        <v>5</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105">
-        <v>5</v>
-      </c>
-      <c r="M105">
-        <v>3</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="O105">
-        <v>3</v>
-      </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-      <c r="Q105">
-        <v>1</v>
-      </c>
-      <c r="R105">
-        <v>1</v>
-      </c>
-      <c r="S105">
-        <v>4</v>
-      </c>
-      <c r="T105">
-        <v>25</v>
-      </c>
-      <c r="U105">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="V105">
-        <v>5</v>
-      </c>
-      <c r="W105">
-        <v>1</v>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>Cover- Boulders,Icing</t>
-        </is>
-      </c>
-      <c r="Y105" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 01</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G106">
-        <v>5</v>
-      </c>
-      <c r="H106">
-        <v>3</v>
-      </c>
-      <c r="I106">
-        <v>4</v>
-      </c>
-      <c r="J106">
-        <v>5</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106">
-        <v>5</v>
-      </c>
-      <c r="M106">
-        <v>3</v>
-      </c>
-      <c r="N106">
-        <v>3</v>
-      </c>
-      <c r="O106">
-        <v>3</v>
-      </c>
-      <c r="P106">
-        <v>3</v>
-      </c>
-      <c r="Q106">
-        <v>1</v>
-      </c>
-      <c r="R106">
-        <v>2</v>
-      </c>
-      <c r="S106">
-        <v>5</v>
-      </c>
-      <c r="T106">
-        <v>31</v>
-      </c>
-      <c r="U106">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="V106">
-        <v>5</v>
-      </c>
-      <c r="W106">
-        <v>1</v>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>Cover- Boulders</t>
-        </is>
-      </c>
-      <c r="Y106" t="inlineStr">
-        <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 02</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>5</v>
-      </c>
-      <c r="I107">
-        <v>3</v>
-      </c>
-      <c r="J107">
-        <v>3</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107">
-        <v>5</v>
-      </c>
-      <c r="M107">
-        <v>5</v>
-      </c>
-      <c r="N107">
-        <v>5</v>
-      </c>
-      <c r="O107">
-        <v>3</v>
-      </c>
-      <c r="P107">
-        <v>3</v>
-      </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="R107">
-        <v>2</v>
-      </c>
-      <c r="S107">
-        <v>4</v>
-      </c>
-      <c r="T107">
-        <v>31</v>
-      </c>
-      <c r="U107">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="V107">
-        <v>5</v>
-      </c>
-      <c r="W107">
-        <v>1</v>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>Cover- Boulders</t>
-        </is>
-      </c>
-      <c r="Y107" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,7 +480,12 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>unacceptable_and_at_risk_1_3_indiv_habitat_attributes</t>
+          <t>at_risk_2_or_3_indiv_habitat_attributes</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>unacceptable_AND_at_risk_1_to_3_indiv_habitat_attributes</t>
         </is>
       </c>
     </row>
@@ -573,6 +578,11 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
@@ -666,6 +676,11 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
@@ -759,6 +774,11 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
@@ -852,6 +872,11 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
@@ -945,6 +970,11 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Riparian</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1038,6 +1068,11 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1131,6 +1166,11 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
@@ -1224,6 +1264,11 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
@@ -1317,6 +1362,11 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
@@ -1410,6 +1460,11 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Riparian</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
           <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1503,6 +1558,11 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Riparian</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
           <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1596,6 +1656,11 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1689,6 +1754,11 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1782,6 +1852,11 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
@@ -1875,6 +1950,11 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
@@ -1968,6 +2048,11 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2061,6 +2146,11 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
@@ -2154,6 +2244,11 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2247,6 +2342,11 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2340,6 +2440,11 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2433,6 +2538,11 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2524,6 +2634,11 @@
           <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2614,6 +2729,11 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2707,6 +2827,11 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2800,6 +2925,11 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2891,6 +3021,11 @@
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2979,6 +3114,11 @@
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3067,6 +3207,11 @@
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3155,6 +3300,11 @@
           <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3243,6 +3393,11 @@
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3331,6 +3486,11 @@
           <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3421,6 +3581,11 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -3514,6 +3679,11 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -3607,6 +3777,11 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Riparian</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
@@ -3700,6 +3875,11 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -3793,6 +3973,11 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -3886,6 +4071,11 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
           <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
@@ -3979,6 +4169,11 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
@@ -4072,6 +4267,11 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -4079,7 +4279,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4108,13 +4308,13 @@
         </is>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41">
         <v>5</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41">
         <v>5</v>
@@ -4123,34 +4323,34 @@
         <v>3</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P41">
         <v>5</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="U41">
-        <v>0.8</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4160,19 +4360,24 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4201,49 +4406,49 @@
         </is>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>5</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T42">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="U42">
-        <v>0.5777777777777777</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V42">
         <v>5</v>
@@ -4253,19 +4458,24 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4309,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -4318,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P43">
         <v>3</v>
@@ -4333,10 +4543,10 @@
         <v>3</v>
       </c>
       <c r="T43">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U43">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4346,10 +4556,15 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -4358,7 +4573,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4443,6 +4658,11 @@
         </is>
       </c>
       <c r="Y44" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -4451,7 +4671,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4480,13 +4700,13 @@
         </is>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -4495,10 +4715,10 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -4507,22 +4727,22 @@
         <v>3</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S45">
         <v>3</v>
       </c>
       <c r="T45">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U45">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4532,19 +4752,24 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4573,13 +4798,13 @@
         </is>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>5</v>
@@ -4591,13 +4816,13 @@
         <v>5</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -4612,10 +4837,10 @@
         <v>3</v>
       </c>
       <c r="T46">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U46">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4625,10 +4850,15 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -4637,7 +4867,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4681,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -4702,13 +4932,13 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U47">
-        <v>0.4888888888888889</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V47">
         <v>5</v>
@@ -4718,19 +4948,24 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4740,7 +4975,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4759,25 +4994,25 @@
         </is>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N48">
         <v>3</v>
@@ -4795,13 +5030,13 @@
         <v>1</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T48">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U48">
-        <v>0.3777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -4811,19 +5046,24 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4908,6 +5148,11 @@
         </is>
       </c>
       <c r="Y49" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
@@ -4916,17 +5161,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4954,13 +5199,13 @@
         <v>3</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M50">
         <v>3</v>
@@ -4972,16 +5217,16 @@
         <v>1</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T50">
         <v>25</v>
@@ -4997,19 +5242,24 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5041,16 +5291,16 @@
         <v>3</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51">
         <v>5</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L51">
         <v>3</v>
@@ -5059,28 +5309,28 @@
         <v>3</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51">
         <v>1</v>
       </c>
       <c r="T51">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="U51">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V51">
         <v>5</v>
@@ -5090,19 +5340,24 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5187,6 +5442,11 @@
         </is>
       </c>
       <c r="Y52" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -5195,7 +5455,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5224,49 +5484,49 @@
         </is>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P53">
         <v>3</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U53">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V53">
         <v>5</v>
@@ -5276,10 +5536,15 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -5288,7 +5553,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5317,49 +5582,49 @@
         </is>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>5</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P54">
         <v>3</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U54">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V54">
         <v>5</v>
@@ -5369,10 +5634,15 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -5381,7 +5651,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5410,16 +5680,16 @@
         </is>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5428,31 +5698,31 @@
         <v>3</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55">
         <v>3</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>1</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U55">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V55">
         <v>5</v>
@@ -5462,19 +5732,24 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5503,16 +5778,16 @@
         </is>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5521,31 +5796,31 @@
         <v>3</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56">
         <v>3</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>1</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S56">
         <v>1</v>
       </c>
       <c r="T56">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U56">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V56">
         <v>5</v>
@@ -5555,19 +5830,24 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5652,6 +5932,11 @@
         </is>
       </c>
       <c r="Y57" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -5660,7 +5945,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5701,10 +5986,10 @@
         <v>3</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M58">
         <v>3</v>
@@ -5716,22 +6001,19 @@
         <v>3</v>
       </c>
       <c r="P58">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S58">
         <v>1</v>
       </c>
       <c r="T58">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U58">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V58">
         <v>5</v>
@@ -5741,29 +6023,34 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5782,28 +6069,28 @@
         </is>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O59">
         <v>3</v>
@@ -5821,10 +6108,10 @@
         <v>1</v>
       </c>
       <c r="T59">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U59">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -5834,29 +6121,34 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5875,25 +6167,25 @@
         </is>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>3</v>
@@ -5904,17 +6196,20 @@
       <c r="P60">
         <v>3</v>
       </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
       <c r="R60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U60">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -5924,19 +6219,24 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5986,28 +6286,28 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U61">
-        <v>0.3555555555555556</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6017,10 +6317,15 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -6029,7 +6334,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6070,7 +6375,7 @@
         <v>5</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -6082,7 +6387,7 @@
         <v>3</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P62">
         <v>3</v>
@@ -6097,10 +6402,10 @@
         <v>1</v>
       </c>
       <c r="T62">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U62">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6110,10 +6415,15 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -6122,7 +6432,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6207,6 +6517,11 @@
         </is>
       </c>
       <c r="Y63" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -6215,7 +6530,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6247,16 +6562,16 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -6265,28 +6580,28 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>1</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U64">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6296,19 +6611,24 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6337,49 +6657,49 @@
         </is>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65">
         <v>3</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P65">
         <v>3</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U65">
-        <v>0.3777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6389,19 +6709,24 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6430,28 +6755,28 @@
         </is>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66">
         <v>3</v>
@@ -6469,10 +6794,10 @@
         <v>1</v>
       </c>
       <c r="T66">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U66">
-        <v>0.3333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6482,19 +6807,24 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6526,46 +6856,46 @@
         <v>3</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J67">
         <v>3</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U67">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6575,19 +6905,24 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6631,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="L68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M68">
         <v>3</v>
@@ -6643,22 +6978,22 @@
         <v>3</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q68">
         <v>1</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U68">
-        <v>0.5111111111111111</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -6668,19 +7003,24 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -6712,10 +7052,10 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -6727,13 +7067,13 @@
         <v>5</v>
       </c>
       <c r="M69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -6748,10 +7088,10 @@
         <v>1</v>
       </c>
       <c r="T69">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U69">
-        <v>0.4888888888888889</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -6761,19 +7101,24 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6783,7 +7128,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -6814,37 +7159,37 @@
         <v>5</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M70">
         <v>3</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P70">
         <v>3</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="U70">
-        <v>0.5777777777777777</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -6854,19 +7199,24 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6876,7 +7226,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -6904,10 +7254,10 @@
         <v>3</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L71">
         <v>5</v>
@@ -6916,28 +7266,28 @@
         <v>3</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="U71">
-        <v>0.5111111111111111</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -6947,19 +7297,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6988,31 +7343,31 @@
         </is>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H72">
         <v>3</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P72">
         <v>3</v>
@@ -7027,10 +7382,10 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U72">
-        <v>0.7333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7040,19 +7395,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7081,31 +7441,31 @@
         </is>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L73">
         <v>5</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P73">
         <v>3</v>
@@ -7120,10 +7480,10 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="U73">
-        <v>0.7777777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7133,19 +7493,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7230,6 +7595,11 @@
         </is>
       </c>
       <c r="Y74" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
         <is>
           <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -7238,7 +7608,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7267,49 +7637,49 @@
         </is>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>5</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
         <v>4</v>
       </c>
-      <c r="J75">
-        <v>3</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>5</v>
-      </c>
-      <c r="M75">
-        <v>5</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-      <c r="O75">
-        <v>3</v>
-      </c>
-      <c r="P75">
-        <v>3</v>
-      </c>
-      <c r="Q75">
-        <v>3</v>
-      </c>
-      <c r="R75">
-        <v>3</v>
-      </c>
       <c r="S75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U75">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7319,19 +7689,24 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7360,49 +7735,49 @@
         </is>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>5</v>
+      </c>
+      <c r="Q76">
+        <v>3</v>
+      </c>
+      <c r="R76">
         <v>4</v>
       </c>
-      <c r="J76">
-        <v>3</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>5</v>
-      </c>
-      <c r="M76">
-        <v>5</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-      <c r="O76">
-        <v>3</v>
-      </c>
-      <c r="P76">
-        <v>3</v>
-      </c>
-      <c r="Q76">
-        <v>3</v>
-      </c>
-      <c r="R76">
-        <v>3</v>
-      </c>
       <c r="S76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U76">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7412,29 +7787,34 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -7453,49 +7833,46 @@
         </is>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J77">
         <v>5</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77">
         <v>5</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>5</v>
-      </c>
-      <c r="Q77">
         <v>1</v>
       </c>
       <c r="R77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T77">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="U77">
-        <v>0.8</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7505,29 +7882,34 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -7546,19 +7928,19 @@
         </is>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>3</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>5</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78">
         <v>5</v>
@@ -7570,25 +7952,22 @@
         <v>3</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>5</v>
-      </c>
-      <c r="Q78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T78">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U78">
-        <v>0.6</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -7598,29 +7977,34 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -7639,16 +8023,16 @@
         </is>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -7657,31 +8041,31 @@
         <v>5</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q79">
         <v>3</v>
       </c>
       <c r="R79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T79">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U79">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V79">
         <v>5</v>
@@ -7691,19 +8075,24 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -7744,16 +8133,16 @@
         <v>5</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <v>5</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O80">
         <v>3</v>
@@ -7761,6 +8150,9 @@
       <c r="P80">
         <v>1</v>
       </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
       <c r="R80">
         <v>1</v>
       </c>
@@ -7768,10 +8160,10 @@
         <v>3</v>
       </c>
       <c r="T80">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U80">
-        <v>0.6222222222222222</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V80">
         <v>5</v>
@@ -7781,10 +8173,15 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
+        <is>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -7793,7 +8190,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7822,46 +8219,49 @@
         </is>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>3</v>
+      </c>
+      <c r="R81">
         <v>2</v>
       </c>
-      <c r="J81">
-        <v>5</v>
-      </c>
-      <c r="K81">
-        <v>3</v>
-      </c>
-      <c r="L81">
-        <v>5</v>
-      </c>
-      <c r="M81">
-        <v>3</v>
-      </c>
-      <c r="N81">
-        <v>3</v>
-      </c>
-      <c r="O81">
-        <v>3</v>
-      </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="R81">
-        <v>1</v>
-      </c>
       <c r="S81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T81">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U81">
-        <v>0.6222222222222222</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -7871,10 +8271,15 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -7883,7 +8288,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -7912,16 +8317,16 @@
         </is>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7936,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P82">
         <v>3</v>
@@ -7948,13 +8353,13 @@
         <v>3</v>
       </c>
       <c r="S82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U82">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -7964,19 +8369,24 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Riparian</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8005,49 +8415,49 @@
         </is>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <v>5</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T83">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U83">
-        <v>0.4888888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8057,19 +8467,24 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8098,16 +8513,16 @@
         </is>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>3</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -8116,31 +8531,31 @@
         <v>5</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N84">
         <v>3</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S84">
         <v>1</v>
       </c>
       <c r="T84">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U84">
-        <v>0.4888888888888889</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V84">
         <v>5</v>
@@ -8150,19 +8565,24 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8191,13 +8611,13 @@
         </is>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -8209,13 +8629,13 @@
         <v>5</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P85">
         <v>3</v>
@@ -8230,10 +8650,10 @@
         <v>1</v>
       </c>
       <c r="T85">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U85">
-        <v>0.4888888888888889</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8243,19 +8663,24 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8265,7 +8690,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -8284,28 +8709,28 @@
         </is>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I86">
         <v>4</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <v>3</v>
@@ -8314,19 +8739,19 @@
         <v>3</v>
       </c>
       <c r="Q86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S86">
         <v>1</v>
       </c>
       <c r="T86">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U86">
-        <v>0.6222222222222222</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8336,19 +8761,24 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8358,7 +8788,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -8377,16 +8807,16 @@
         </is>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -8395,10 +8825,10 @@
         <v>5</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O87">
         <v>3</v>
@@ -8407,19 +8837,19 @@
         <v>3</v>
       </c>
       <c r="Q87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S87">
         <v>1</v>
       </c>
       <c r="T87">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U87">
-        <v>0.5777777777777777</v>
+        <v>0.6</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8429,19 +8859,24 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8451,7 +8886,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -8470,49 +8905,49 @@
         </is>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>3</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
         <v>2</v>
       </c>
-      <c r="J88">
-        <v>5</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
-      <c r="M88">
-        <v>3</v>
-      </c>
-      <c r="N88">
-        <v>3</v>
-      </c>
-      <c r="O88">
-        <v>3</v>
-      </c>
-      <c r="P88">
-        <v>3</v>
-      </c>
-      <c r="Q88">
-        <v>3</v>
-      </c>
-      <c r="R88">
-        <v>3</v>
-      </c>
       <c r="S88">
         <v>1</v>
       </c>
       <c r="T88">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U88">
-        <v>0.5777777777777777</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V88">
         <v>5</v>
@@ -8522,19 +8957,24 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -8563,16 +9003,16 @@
         </is>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H89">
         <v>5</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -8584,7 +9024,7 @@
         <v>5</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O89">
         <v>3</v>
@@ -8602,10 +9042,10 @@
         <v>1</v>
       </c>
       <c r="T89">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U89">
-        <v>0.5111111111111111</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V89">
         <v>5</v>
@@ -8615,19 +9055,24 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -8656,16 +9101,16 @@
         </is>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H90">
         <v>5</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -8677,7 +9122,7 @@
         <v>5</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O90">
         <v>3</v>
@@ -8695,10 +9140,10 @@
         <v>1</v>
       </c>
       <c r="T90">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="U90">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -8708,19 +9153,24 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -8730,7 +9180,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -8749,10 +9199,10 @@
         </is>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -8764,13 +9214,13 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O91">
         <v>3</v>
@@ -8788,10 +9238,10 @@
         <v>1</v>
       </c>
       <c r="T91">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U91">
-        <v>0.5111111111111111</v>
+        <v>0.6</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -8801,19 +9251,24 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -8823,7 +9278,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -8842,49 +9297,49 @@
         </is>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O92">
         <v>3</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>1</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S92">
         <v>1</v>
       </c>
       <c r="T92">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="U92">
-        <v>0.5777777777777777</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -8894,19 +9349,24 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -8916,7 +9376,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -8935,16 +9395,16 @@
         </is>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -8953,31 +9413,31 @@
         <v>5</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O93">
         <v>3</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q93">
         <v>1</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S93">
         <v>1</v>
       </c>
       <c r="T93">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U93">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -8987,19 +9447,24 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9009,7 +9474,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -9028,13 +9493,13 @@
         </is>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -9049,28 +9514,28 @@
         <v>3</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O94">
         <v>3</v>
       </c>
       <c r="P94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q94">
         <v>1</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S94">
         <v>1</v>
       </c>
       <c r="T94">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="U94">
-        <v>0.6</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V94">
         <v>5</v>
@@ -9080,19 +9545,24 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9124,10 +9594,10 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -9160,10 +9630,10 @@
         <v>1</v>
       </c>
       <c r="T95">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U95">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V95">
         <v>5</v>
@@ -9173,10 +9643,15 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -9185,7 +9660,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9195,7 +9670,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -9214,13 +9689,13 @@
         </is>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -9235,28 +9710,28 @@
         <v>3</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O96">
         <v>3</v>
       </c>
       <c r="P96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S96">
         <v>1</v>
       </c>
       <c r="T96">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U96">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V96">
         <v>5</v>
@@ -9266,19 +9741,24 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9288,7 +9768,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -9310,46 +9790,46 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="O97">
+        <v>3</v>
+      </c>
+      <c r="P97">
+        <v>3</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
         <v>2</v>
       </c>
-      <c r="J97">
-        <v>5</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>5</v>
-      </c>
-      <c r="M97">
-        <v>3</v>
-      </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97">
-        <v>3</v>
-      </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="Q97">
-        <v>1</v>
-      </c>
-      <c r="R97">
-        <v>1</v>
-      </c>
       <c r="S97">
         <v>1</v>
       </c>
       <c r="T97">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U97">
-        <v>0.4888888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V97">
         <v>5</v>
@@ -9359,289 +9839,15 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 03</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>3</v>
-      </c>
-      <c r="I98">
-        <v>2</v>
-      </c>
-      <c r="J98">
-        <v>5</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <v>5</v>
-      </c>
-      <c r="M98">
-        <v>3</v>
-      </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98">
-        <v>3</v>
-      </c>
-      <c r="P98">
-        <v>1</v>
-      </c>
-      <c r="Q98">
-        <v>1</v>
-      </c>
-      <c r="R98">
-        <v>1</v>
-      </c>
-      <c r="S98">
-        <v>1</v>
-      </c>
-      <c r="T98">
-        <v>22</v>
-      </c>
-      <c r="U98">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V98">
-        <v>5</v>
-      </c>
-      <c r="W98">
-        <v>1</v>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 01</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G99">
-        <v>5</v>
-      </c>
-      <c r="H99">
-        <v>3</v>
-      </c>
-      <c r="I99">
-        <v>4</v>
-      </c>
-      <c r="J99">
-        <v>5</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <v>5</v>
-      </c>
-      <c r="M99">
-        <v>3</v>
-      </c>
-      <c r="N99">
-        <v>3</v>
-      </c>
-      <c r="O99">
-        <v>3</v>
-      </c>
-      <c r="P99">
-        <v>3</v>
-      </c>
-      <c r="Q99">
-        <v>1</v>
-      </c>
-      <c r="R99">
-        <v>2</v>
-      </c>
-      <c r="S99">
-        <v>1</v>
-      </c>
-      <c r="T99">
-        <v>27</v>
-      </c>
-      <c r="U99">
-        <v>0.6</v>
-      </c>
-      <c r="V99">
-        <v>5</v>
-      </c>
-      <c r="W99">
-        <v>1</v>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 02</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>5</v>
-      </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
-      <c r="J100">
-        <v>3</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100">
-        <v>5</v>
-      </c>
-      <c r="M100">
-        <v>5</v>
-      </c>
-      <c r="N100">
-        <v>5</v>
-      </c>
-      <c r="O100">
-        <v>3</v>
-      </c>
-      <c r="P100">
-        <v>3</v>
-      </c>
-      <c r="Q100">
-        <v>1</v>
-      </c>
-      <c r="R100">
-        <v>2</v>
-      </c>
-      <c r="S100">
-        <v>1</v>
-      </c>
-      <c r="T100">
-        <v>28</v>
-      </c>
-      <c r="U100">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V100">
-        <v>5</v>
-      </c>
-      <c r="W100">
-        <v>1</v>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr">
+          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Steelhead_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1080,7 +1080,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 07</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1124,34 +1124,34 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>5</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U8">
-        <v>0.6222222222222222</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1161,24 +1161,24 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Riparian</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 08</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1222,34 +1222,34 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <v>5</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U9">
-        <v>0.6222222222222222</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1259,24 +1259,24 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 09</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1305,43 +1305,43 @@
         </is>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
       <c r="S10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>26</v>
@@ -1357,24 +1357,24 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Chewuch River Pearrygin 04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1412,40 +1412,40 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>1</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11">
-        <v>0.6444444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1455,24 +1455,24 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Chewuch River Pearrygin 05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1501,28 +1501,28 @@
         </is>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -1531,10 +1531,10 @@
         <v>5</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1553,24 +1553,24 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Chewuch River Pearrygin 06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1626,22 +1626,22 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U13">
-        <v>0.5777777777777777</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1651,24 +1651,24 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 04</t>
+          <t>Chewuch River Pearrygin 07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1736,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U14">
-        <v>0.6222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -1766,7 +1766,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 05</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1813,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15">
         <v>5</v>
@@ -1834,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U15">
-        <v>0.6444444444444445</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1852,19 +1852,19 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 06</t>
+          <t>Chewuch River Pearrygin 09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G16">
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1923,19 +1923,19 @@
         <v>5</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U16">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1945,24 +1945,24 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 07</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2018,22 +2018,22 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U17">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -2060,7 +2060,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Pearrygin 11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2107,10 +2107,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>5</v>
@@ -2119,19 +2119,19 @@
         <v>5</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U18">
-        <v>0.7555555555555555</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -2141,24 +2141,24 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 09</t>
+          <t>Chewuch River Thirtymile 01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2190,46 +2190,46 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>3</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U19">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2239,24 +2239,24 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Chewuch River Thirtymile 02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2288,46 +2288,46 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20">
         <v>3</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="U20">
-        <v>0.5777777777777777</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V20">
         <v>5</v>
@@ -2335,36 +2335,31 @@
       <c r="W20">
         <v>1</v>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
-        </is>
-      </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 11</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2383,49 +2378,49 @@
         </is>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <v>3</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U21">
-        <v>0.5777777777777777</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V21">
         <v>5</v>
@@ -2435,34 +2430,34 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 01</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2481,49 +2476,49 @@
         </is>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
         <v>2</v>
       </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22">
-        <v>5</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>3</v>
-      </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <v>3</v>
-      </c>
       <c r="S22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U22">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2533,34 +2528,34 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 02</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2579,49 +2574,49 @@
         </is>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
         <v>2</v>
       </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>5</v>
-      </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
-      </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-      <c r="R23">
-        <v>3</v>
-      </c>
       <c r="S23">
         <v>3</v>
       </c>
       <c r="T23">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U23">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V23">
         <v>5</v>
@@ -2629,21 +2624,26 @@
       <c r="W23">
         <v>1</v>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2708,13 +2708,13 @@
         <v>2</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T24">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U24">
-        <v>0.6666666666666666</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2722,14 +2722,9 @@
       <c r="W24">
         <v>1</v>
       </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -2741,7 +2736,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2785,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -2806,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T25">
         <v>30</v>
@@ -2820,26 +2815,21 @@
       <c r="W25">
         <v>1</v>
       </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2849,7 +2839,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2868,22 +2858,22 @@
         </is>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26">
         <v>3</v>
@@ -2898,10 +2888,10 @@
         <v>3</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S26">
         <v>3</v>
@@ -2918,26 +2908,21 @@
       <c r="W26">
         <v>1</v>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
-        </is>
-      </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2947,7 +2932,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2966,22 +2951,22 @@
         </is>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27">
         <v>3</v>
@@ -2990,25 +2975,25 @@
         <v>3</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P27">
         <v>3</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27">
         <v>3</v>
       </c>
       <c r="T27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U27">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -3018,19 +3003,19 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3040,7 +3025,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3059,25 +3044,25 @@
         </is>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>5</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>3</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -3086,10 +3071,10 @@
         <v>3</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -3098,10 +3083,10 @@
         <v>3</v>
       </c>
       <c r="T28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U28">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V28">
         <v>5</v>
@@ -3109,21 +3094,26 @@
       <c r="W28">
         <v>1</v>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3133,7 +3123,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3152,49 +3142,49 @@
         </is>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>3</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29">
         <v>3</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>3</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S29">
         <v>3</v>
       </c>
       <c r="T29">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U29">
-        <v>0.7111111111111111</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3202,21 +3192,26 @@
       <c r="W29">
         <v>1</v>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3226,7 +3221,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3245,49 +3240,49 @@
         </is>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>3</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="U30">
-        <v>0.7333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V30">
         <v>5</v>
@@ -3295,21 +3290,26 @@
       <c r="W30">
         <v>1</v>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Riparian</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Mad River Lower 03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3341,46 +3341,46 @@
         <v>3</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31">
         <v>3</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R31">
         <v>4</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U31">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V31">
         <v>5</v>
@@ -3388,31 +3388,36 @@
       <c r="W31">
         <v>1</v>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3440,13 +3445,13 @@
         <v>3</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3455,25 +3460,25 @@
         <v>3</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="U32">
-        <v>0.7333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V32">
         <v>5</v>
@@ -3481,31 +3486,36 @@
       <c r="W32">
         <v>1</v>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3527,46 +3537,46 @@
         <v>3</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>3</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P33">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="U33">
-        <v>0.6444444444444445</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V33">
         <v>5</v>
@@ -3576,34 +3586,34 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3625,46 +3635,46 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J34">
         <v>5</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>3</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>3</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <v>3</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U34">
-        <v>0.6444444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V34">
         <v>5</v>
@@ -3674,34 +3684,34 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3720,49 +3730,49 @@
         </is>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q35">
         <v>1</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="U35">
-        <v>0.4444444444444444</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V35">
         <v>5</v>
@@ -3772,24 +3782,24 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3799,7 +3809,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3818,43 +3828,43 @@
         </is>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>3</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T36">
         <v>21</v>
@@ -3870,24 +3880,24 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3897,7 +3907,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3916,16 +3926,16 @@
         </is>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3934,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -3952,13 +3962,13 @@
         <v>1</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U37">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V37">
         <v>5</v>
@@ -3968,24 +3978,24 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3995,7 +4005,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4017,19 +4027,19 @@
         <v>3</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M38">
         <v>3</v>
@@ -4038,25 +4048,25 @@
         <v>3</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T38">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U38">
-        <v>0.6888888888888889</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V38">
         <v>5</v>
@@ -4066,24 +4076,24 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4093,7 +4103,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4115,16 +4125,16 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>5</v>
@@ -4136,25 +4146,25 @@
         <v>3</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="U39">
-        <v>0.7333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V39">
         <v>5</v>
@@ -4164,34 +4174,34 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4210,13 +4220,13 @@
         </is>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>5</v>
@@ -4228,19 +4238,19 @@
         <v>3</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40">
         <v>3</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40">
         <v>3</v>
@@ -4249,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="T40">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U40">
-        <v>0.6222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4262,34 +4272,34 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4311,10 +4321,10 @@
         <v>3</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41">
         <v>5</v>
@@ -4323,7 +4333,7 @@
         <v>3</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41">
         <v>3</v>
@@ -4332,13 +4342,13 @@
         <v>3</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R41">
         <v>3</v>
@@ -4347,10 +4357,10 @@
         <v>1</v>
       </c>
       <c r="T41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U41">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4360,34 +4370,34 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4406,28 +4416,28 @@
         </is>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42">
         <v>5</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -4436,19 +4446,19 @@
         <v>3</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U42">
-        <v>0.3777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V42">
         <v>5</v>
@@ -4458,12 +4468,12 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Stability,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -4475,17 +4485,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4540,13 +4550,13 @@
         <v>2</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U43">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4556,12 +4566,12 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -4573,17 +4583,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4638,13 +4648,13 @@
         <v>2</v>
       </c>
       <c r="S44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U44">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4654,12 +4664,12 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -4671,17 +4681,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4709,19 +4719,19 @@
         <v>3</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45">
         <v>3</v>
@@ -4736,13 +4746,13 @@
         <v>1</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U45">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4752,34 +4762,34 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4798,31 +4808,31 @@
         </is>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N46">
         <v>3</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -4834,13 +4844,13 @@
         <v>1</v>
       </c>
       <c r="S46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U46">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4850,34 +4860,34 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4896,31 +4906,31 @@
         </is>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47">
         <v>3</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -4932,13 +4942,13 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U47">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V47">
         <v>5</v>
@@ -4948,34 +4958,34 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5006,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L48">
         <v>5</v>
@@ -5018,25 +5028,22 @@
         <v>3</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U48">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -5046,24 +5053,24 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5073,7 +5080,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5092,31 +5099,31 @@
         </is>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -5128,13 +5135,13 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U49">
-        <v>0.5555555555555556</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V49">
         <v>5</v>
@@ -5144,34 +5151,34 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5190,13 +5197,13 @@
         </is>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -5205,34 +5212,34 @@
         <v>3</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>3</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P50">
         <v>3</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U50">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5242,12 +5249,12 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -5259,17 +5266,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5288,25 +5295,25 @@
         </is>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <v>5</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>3</v>
@@ -5318,19 +5325,19 @@
         <v>3</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S51">
         <v>1</v>
       </c>
       <c r="T51">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="U51">
-        <v>0.5555555555555556</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V51">
         <v>5</v>
@@ -5340,12 +5347,12 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -5357,17 +5364,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5386,25 +5393,25 @@
         </is>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>3</v>
@@ -5416,19 +5423,19 @@
         <v>3</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S52">
         <v>1</v>
       </c>
       <c r="T52">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="U52">
-        <v>0.5555555555555556</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V52">
         <v>5</v>
@@ -5438,12 +5445,12 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -5455,17 +5462,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5487,19 +5494,19 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -5511,22 +5518,22 @@
         <v>3</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q53">
         <v>1</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U53">
-        <v>0.4222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V53">
         <v>5</v>
@@ -5536,34 +5543,34 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5582,49 +5589,49 @@
         </is>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P54">
         <v>3</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U54">
-        <v>0.4222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V54">
         <v>5</v>
@@ -5634,34 +5641,34 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5689,7 +5696,7 @@
         <v>3</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5719,10 +5726,10 @@
         <v>1</v>
       </c>
       <c r="T55">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U55">
-        <v>0.4666666666666667</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V55">
         <v>5</v>
@@ -5737,29 +5744,29 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5781,10 +5788,10 @@
         <v>3</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -5793,16 +5800,16 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -5817,10 +5824,10 @@
         <v>1</v>
       </c>
       <c r="T56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U56">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V56">
         <v>5</v>
@@ -5830,34 +5837,34 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5885,13 +5892,13 @@
         <v>3</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M57">
         <v>3</v>
@@ -5903,22 +5910,22 @@
         <v>3</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q57">
         <v>1</v>
       </c>
       <c r="R57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S57">
         <v>1</v>
       </c>
       <c r="T57">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="U57">
-        <v>0.4666666666666667</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5928,34 +5935,34 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5986,7 +5993,7 @@
         <v>3</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>5</v>
@@ -6001,19 +6008,22 @@
         <v>3</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
       </c>
       <c r="R58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S58">
         <v>1</v>
       </c>
       <c r="T58">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U58">
-        <v>0.6</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V58">
         <v>5</v>
@@ -6023,12 +6033,12 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -6040,7 +6050,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6050,7 +6060,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6069,49 +6079,49 @@
         </is>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>5</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S59">
         <v>1</v>
       </c>
       <c r="T59">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="U59">
-        <v>0.3555555555555556</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -6121,24 +6131,24 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6148,7 +6158,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6167,49 +6177,49 @@
         </is>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>5</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P60">
         <v>3</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="U60">
-        <v>0.4666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -6219,24 +6229,24 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6246,7 +6256,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6265,49 +6275,49 @@
         </is>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N61">
         <v>3</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P61">
         <v>3</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="U61">
-        <v>0.3777777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6317,24 +6327,24 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6344,7 +6354,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -6363,49 +6373,49 @@
         </is>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H62">
         <v>3</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N62">
         <v>3</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P62">
         <v>3</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="U62">
-        <v>0.3777777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6415,24 +6425,24 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6442,7 +6452,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6461,49 +6471,49 @@
         </is>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N63">
         <v>3</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63">
         <v>3</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="U63">
-        <v>0.3777777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6513,24 +6523,24 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6540,7 +6550,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6559,49 +6569,49 @@
         </is>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="U64">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6611,24 +6621,24 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6638,7 +6648,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6666,13 +6676,13 @@
         <v>3</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M65">
         <v>3</v>
@@ -6681,25 +6691,25 @@
         <v>3</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q65">
         <v>3</v>
       </c>
       <c r="R65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U65">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6709,34 +6719,34 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6770,34 +6780,34 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>3</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P66">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U66">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6807,34 +6817,34 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6853,16 +6863,16 @@
         </is>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I67">
         <v>4</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6871,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="M67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -6880,13 +6890,13 @@
         <v>1</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -6905,34 +6915,34 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6951,19 +6961,19 @@
         </is>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68">
         <v>5</v>
@@ -6981,19 +6991,19 @@
         <v>3</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U68">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -7003,34 +7013,34 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7049,16 +7059,16 @@
         </is>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -7076,22 +7086,22 @@
         <v>3</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U69">
-        <v>0.5111111111111111</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7101,34 +7111,34 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Wenatchee River Beaver 13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7147,31 +7157,31 @@
         </is>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J70">
         <v>5</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P70">
         <v>3</v>
@@ -7186,10 +7196,10 @@
         <v>1</v>
       </c>
       <c r="T70">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U70">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7199,34 +7209,34 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7248,46 +7258,46 @@
         <v>3</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J71">
         <v>5</v>
       </c>
       <c r="K71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P71">
         <v>3</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="U71">
-        <v>0.7777777777777778</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7297,34 +7307,34 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7343,28 +7353,28 @@
         </is>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>4</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <v>5</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O72">
         <v>3</v>
@@ -7373,19 +7383,19 @@
         <v>3</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U72">
-        <v>0.6222222222222222</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7395,34 +7405,34 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -7444,10 +7454,10 @@
         <v>5</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J73">
         <v>3</v>
@@ -7456,13 +7466,13 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M73">
         <v>5</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O73">
         <v>3</v>
@@ -7471,19 +7481,19 @@
         <v>3</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U73">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7493,34 +7503,34 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -7542,10 +7552,10 @@
         <v>5</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -7560,7 +7570,7 @@
         <v>5</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O74">
         <v>3</v>
@@ -7569,19 +7579,19 @@
         <v>3</v>
       </c>
       <c r="Q74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U74">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7596,29 +7606,29 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -7637,13 +7647,13 @@
         </is>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -7658,28 +7668,28 @@
         <v>3</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T75">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U75">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7689,34 +7699,34 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7735,13 +7745,13 @@
         </is>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>5</v>
@@ -7756,28 +7766,28 @@
         <v>3</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T76">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U76">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7787,24 +7797,24 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7814,7 +7824,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -7833,46 +7843,49 @@
         </is>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>3</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
         <v>2</v>
       </c>
-      <c r="J77">
-        <v>5</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-      <c r="O77">
-        <v>3</v>
-      </c>
-      <c r="P77">
-        <v>1</v>
-      </c>
-      <c r="R77">
-        <v>1</v>
-      </c>
       <c r="S77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T77">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U77">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7882,1974 +7895,17 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 04</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78">
-        <v>5</v>
-      </c>
-      <c r="K78">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>5</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="R78">
-        <v>1</v>
-      </c>
-      <c r="S78">
-        <v>3</v>
-      </c>
-      <c r="T78">
-        <v>28</v>
-      </c>
-      <c r="U78">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V78">
-        <v>5</v>
-      </c>
-      <c r="W78">
-        <v>1</v>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>Riparian</t>
-        </is>
-      </c>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 05</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>3</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>5</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>3</v>
-      </c>
-      <c r="P79">
-        <v>3</v>
-      </c>
-      <c r="Q79">
-        <v>3</v>
-      </c>
-      <c r="R79">
-        <v>3</v>
-      </c>
-      <c r="S79">
-        <v>3</v>
-      </c>
-      <c r="T79">
-        <v>21</v>
-      </c>
-      <c r="U79">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="V79">
-        <v>5</v>
-      </c>
-      <c r="W79">
-        <v>1</v>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 06</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>3</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80">
-        <v>5</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>5</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>3</v>
-      </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>1</v>
-      </c>
-      <c r="R80">
-        <v>1</v>
-      </c>
-      <c r="S80">
-        <v>3</v>
-      </c>
-      <c r="T80">
-        <v>22</v>
-      </c>
-      <c r="U80">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V80">
-        <v>5</v>
-      </c>
-      <c r="W80">
-        <v>1</v>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
-        </is>
-      </c>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 08</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G81">
-        <v>3</v>
-      </c>
-      <c r="H81">
-        <v>3</v>
-      </c>
-      <c r="I81">
-        <v>3</v>
-      </c>
-      <c r="J81">
-        <v>5</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>5</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>3</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>3</v>
-      </c>
-      <c r="R81">
-        <v>2</v>
-      </c>
-      <c r="S81">
-        <v>1</v>
-      </c>
-      <c r="T81">
-        <v>22</v>
-      </c>
-      <c r="U81">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V81">
-        <v>5</v>
-      </c>
-      <c r="W81">
-        <v>1</v>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 09</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G82">
-        <v>5</v>
-      </c>
-      <c r="H82">
-        <v>3</v>
-      </c>
-      <c r="I82">
-        <v>4</v>
-      </c>
-      <c r="J82">
-        <v>5</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>5</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82">
-        <v>3</v>
-      </c>
-      <c r="Q82">
-        <v>3</v>
-      </c>
-      <c r="R82">
-        <v>3</v>
-      </c>
-      <c r="S82">
-        <v>1</v>
-      </c>
-      <c r="T82">
-        <v>22</v>
-      </c>
-      <c r="U82">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V82">
-        <v>5</v>
-      </c>
-      <c r="W82">
-        <v>1</v>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>Riparian</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 10</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G83">
-        <v>5</v>
-      </c>
-      <c r="H83">
-        <v>3</v>
-      </c>
-      <c r="I83">
-        <v>4</v>
-      </c>
-      <c r="J83">
-        <v>3</v>
-      </c>
-      <c r="K83">
-        <v>3</v>
-      </c>
-      <c r="L83">
-        <v>5</v>
-      </c>
-      <c r="M83">
-        <v>3</v>
-      </c>
-      <c r="N83">
-        <v>3</v>
-      </c>
-      <c r="O83">
-        <v>3</v>
-      </c>
-      <c r="P83">
-        <v>3</v>
-      </c>
-      <c r="Q83">
-        <v>3</v>
-      </c>
-      <c r="R83">
-        <v>3</v>
-      </c>
-      <c r="S83">
-        <v>1</v>
-      </c>
-      <c r="T83">
-        <v>28</v>
-      </c>
-      <c r="U83">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V83">
-        <v>5</v>
-      </c>
-      <c r="W83">
-        <v>1</v>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 11</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G84">
-        <v>5</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>3</v>
-      </c>
-      <c r="J84">
-        <v>3</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84">
-        <v>5</v>
-      </c>
-      <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="N84">
-        <v>3</v>
-      </c>
-      <c r="O84">
-        <v>3</v>
-      </c>
-      <c r="P84">
-        <v>3</v>
-      </c>
-      <c r="Q84">
-        <v>5</v>
-      </c>
-      <c r="R84">
-        <v>4</v>
-      </c>
-      <c r="S84">
-        <v>1</v>
-      </c>
-      <c r="T84">
-        <v>26</v>
-      </c>
-      <c r="U84">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="V84">
-        <v>5</v>
-      </c>
-      <c r="W84">
-        <v>1</v>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 12</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>3</v>
-      </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85">
-        <v>5</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>5</v>
-      </c>
-      <c r="M85">
-        <v>3</v>
-      </c>
-      <c r="N85">
-        <v>3</v>
-      </c>
-      <c r="O85">
-        <v>3</v>
-      </c>
-      <c r="P85">
-        <v>3</v>
-      </c>
-      <c r="Q85">
-        <v>3</v>
-      </c>
-      <c r="R85">
-        <v>3</v>
-      </c>
-      <c r="S85">
-        <v>1</v>
-      </c>
-      <c r="T85">
-        <v>26</v>
-      </c>
-      <c r="U85">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="V85">
-        <v>5</v>
-      </c>
-      <c r="W85">
-        <v>1</v>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 01</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Derby Canyon</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G86">
-        <v>3</v>
-      </c>
-      <c r="H86">
-        <v>5</v>
-      </c>
-      <c r="I86">
-        <v>4</v>
-      </c>
-      <c r="J86">
-        <v>5</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>5</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-      <c r="R86">
-        <v>2</v>
-      </c>
-      <c r="S86">
-        <v>1</v>
-      </c>
-      <c r="T86">
-        <v>23</v>
-      </c>
-      <c r="U86">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="V86">
-        <v>5</v>
-      </c>
-      <c r="W86">
-        <v>1</v>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 02</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Derby Canyon</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G87">
-        <v>3</v>
-      </c>
-      <c r="H87">
-        <v>5</v>
-      </c>
-      <c r="I87">
-        <v>4</v>
-      </c>
-      <c r="J87">
-        <v>5</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>5</v>
-      </c>
-      <c r="M87">
-        <v>5</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>3</v>
-      </c>
-      <c r="P87">
-        <v>3</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-      <c r="R87">
-        <v>2</v>
-      </c>
-      <c r="S87">
-        <v>1</v>
-      </c>
-      <c r="T87">
-        <v>27</v>
-      </c>
-      <c r="U87">
-        <v>0.6</v>
-      </c>
-      <c r="V87">
-        <v>5</v>
-      </c>
-      <c r="W87">
-        <v>1</v>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 03</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Derby Canyon</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G88">
-        <v>3</v>
-      </c>
-      <c r="H88">
-        <v>5</v>
-      </c>
-      <c r="I88">
-        <v>4</v>
-      </c>
-      <c r="J88">
-        <v>5</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>5</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>3</v>
-      </c>
-      <c r="P88">
-        <v>3</v>
-      </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
-      <c r="R88">
-        <v>2</v>
-      </c>
-      <c r="S88">
-        <v>1</v>
-      </c>
-      <c r="T88">
-        <v>23</v>
-      </c>
-      <c r="U88">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="V88">
-        <v>5</v>
-      </c>
-      <c r="W88">
-        <v>1</v>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 04</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Derby Canyon</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G89">
-        <v>5</v>
-      </c>
-      <c r="H89">
-        <v>5</v>
-      </c>
-      <c r="I89">
-        <v>5</v>
-      </c>
-      <c r="J89">
-        <v>3</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>5</v>
-      </c>
-      <c r="N89">
-        <v>5</v>
-      </c>
-      <c r="O89">
-        <v>3</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>1</v>
-      </c>
-      <c r="R89">
-        <v>2</v>
-      </c>
-      <c r="S89">
-        <v>1</v>
-      </c>
-      <c r="T89">
-        <v>26</v>
-      </c>
-      <c r="U89">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="V89">
-        <v>5</v>
-      </c>
-      <c r="W89">
-        <v>1</v>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y89" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 05</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Derby Canyon</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G90">
-        <v>5</v>
-      </c>
-      <c r="H90">
-        <v>5</v>
-      </c>
-      <c r="I90">
-        <v>5</v>
-      </c>
-      <c r="J90">
-        <v>3</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>5</v>
-      </c>
-      <c r="M90">
-        <v>5</v>
-      </c>
-      <c r="N90">
-        <v>5</v>
-      </c>
-      <c r="O90">
-        <v>3</v>
-      </c>
-      <c r="P90">
-        <v>3</v>
-      </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
-      <c r="R90">
-        <v>2</v>
-      </c>
-      <c r="S90">
-        <v>1</v>
-      </c>
-      <c r="T90">
-        <v>30</v>
-      </c>
-      <c r="U90">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="V90">
-        <v>5</v>
-      </c>
-      <c r="W90">
-        <v>1</v>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y90" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 06</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G91">
-        <v>5</v>
-      </c>
-      <c r="H91">
-        <v>3</v>
-      </c>
-      <c r="I91">
-        <v>4</v>
-      </c>
-      <c r="J91">
-        <v>5</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <v>5</v>
-      </c>
-      <c r="M91">
-        <v>3</v>
-      </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>3</v>
-      </c>
-      <c r="P91">
-        <v>3</v>
-      </c>
-      <c r="Q91">
-        <v>1</v>
-      </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91">
-        <v>1</v>
-      </c>
-      <c r="T91">
-        <v>27</v>
-      </c>
-      <c r="U91">
-        <v>0.6</v>
-      </c>
-      <c r="V91">
-        <v>5</v>
-      </c>
-      <c r="W91">
-        <v>1</v>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y91" t="inlineStr">
-        <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Wenatchee River Nahahum 07</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>5</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>5</v>
-      </c>
-      <c r="M92">
-        <v>3</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>3</v>
-      </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>1</v>
-      </c>
-      <c r="R92">
-        <v>1</v>
-      </c>
-      <c r="S92">
-        <v>1</v>
-      </c>
-      <c r="T92">
-        <v>21</v>
-      </c>
-      <c r="U92">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="V92">
-        <v>5</v>
-      </c>
-      <c r="W92">
-        <v>1</v>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 01</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>5</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>5</v>
-      </c>
-      <c r="M93">
-        <v>3</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>3</v>
-      </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>1</v>
-      </c>
-      <c r="R93">
-        <v>1</v>
-      </c>
-      <c r="S93">
-        <v>1</v>
-      </c>
-      <c r="T93">
-        <v>21</v>
-      </c>
-      <c r="U93">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="V93">
-        <v>5</v>
-      </c>
-      <c r="W93">
-        <v>1</v>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 02</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
-      <c r="J94">
-        <v>5</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>5</v>
-      </c>
-      <c r="M94">
-        <v>3</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
-        <v>3</v>
-      </c>
-      <c r="P94">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>1</v>
-      </c>
-      <c r="R94">
-        <v>1</v>
-      </c>
-      <c r="S94">
-        <v>1</v>
-      </c>
-      <c r="T94">
-        <v>22</v>
-      </c>
-      <c r="U94">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V94">
-        <v>5</v>
-      </c>
-      <c r="W94">
-        <v>1</v>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 03</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>3</v>
-      </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
-      <c r="J95">
-        <v>5</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <v>5</v>
-      </c>
-      <c r="M95">
-        <v>3</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95">
-        <v>3</v>
-      </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>1</v>
-      </c>
-      <c r="R95">
-        <v>1</v>
-      </c>
-      <c r="S95">
-        <v>1</v>
-      </c>
-      <c r="T95">
-        <v>22</v>
-      </c>
-      <c r="U95">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V95">
-        <v>5</v>
-      </c>
-      <c r="W95">
-        <v>1</v>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 01</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G96">
-        <v>5</v>
-      </c>
-      <c r="H96">
-        <v>3</v>
-      </c>
-      <c r="I96">
-        <v>4</v>
-      </c>
-      <c r="J96">
-        <v>5</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>5</v>
-      </c>
-      <c r="M96">
-        <v>3</v>
-      </c>
-      <c r="N96">
-        <v>3</v>
-      </c>
-      <c r="O96">
-        <v>3</v>
-      </c>
-      <c r="P96">
-        <v>3</v>
-      </c>
-      <c r="Q96">
-        <v>1</v>
-      </c>
-      <c r="R96">
-        <v>2</v>
-      </c>
-      <c r="S96">
-        <v>1</v>
-      </c>
-      <c r="T96">
-        <v>27</v>
-      </c>
-      <c r="U96">
-        <v>0.6</v>
-      </c>
-      <c r="V96">
-        <v>5</v>
-      </c>
-      <c r="W96">
-        <v>1</v>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 02</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>5</v>
-      </c>
-      <c r="I97">
-        <v>3</v>
-      </c>
-      <c r="J97">
-        <v>3</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>5</v>
-      </c>
-      <c r="M97">
-        <v>5</v>
-      </c>
-      <c r="N97">
-        <v>5</v>
-      </c>
-      <c r="O97">
-        <v>3</v>
-      </c>
-      <c r="P97">
-        <v>3</v>
-      </c>
-      <c r="Q97">
-        <v>1</v>
-      </c>
-      <c r="R97">
-        <v>2</v>
-      </c>
-      <c r="S97">
-        <v>1</v>
-      </c>
-      <c r="T97">
-        <v>28</v>
-      </c>
-      <c r="U97">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V97">
-        <v>5</v>
-      </c>
-      <c r="W97">
-        <v>1</v>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:Z104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -863,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -952,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U6">
-        <v>0.7333333333333333</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Chewuch River Doe 07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1124,34 +1124,34 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U8">
-        <v>0.6444444444444445</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1161,24 +1161,24 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Chewuch River Doe 08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1222,34 +1222,34 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U9">
-        <v>0.6444444444444445</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1259,24 +1259,24 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Chewuch River Doe 09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1320,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>3</v>
@@ -1341,13 +1341,13 @@
         <v>2</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U10">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1357,24 +1357,24 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 04</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1421,10 +1421,10 @@
         <v>3</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U11">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1455,24 +1455,24 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 05</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1501,16 +1501,16 @@
         </is>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1519,31 +1519,31 @@
         <v>3</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>5</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U12">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1553,24 +1553,24 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 06</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1620,28 +1620,28 @@
         <v>3</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U13">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1651,24 +1651,24 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 07</t>
+          <t>Chewuch River Pearrygin 04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1736,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U14">
-        <v>0.5555555555555556</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -1766,7 +1766,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Pearrygin 05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1813,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>5</v>
@@ -1834,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U15">
-        <v>0.7555555555555555</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1852,19 +1852,19 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 09</t>
+          <t>Chewuch River Pearrygin 06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G16">
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1923,19 +1923,19 @@
         <v>5</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U16">
-        <v>0.5777777777777777</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1945,24 +1945,24 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Chewuch River Pearrygin 07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2018,22 +2018,22 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U17">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -2060,7 +2060,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 11</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2089,76 +2089,76 @@
         </is>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
       <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
         <v>4</v>
       </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>3</v>
-      </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U18">
-        <v>0.5777777777777777</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V18">
         <v>5</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 01</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2190,46 +2190,46 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>3</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U19">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2239,24 +2239,24 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 02</t>
+          <t>Chewuch River Pearrygin 11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2288,46 +2288,46 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
         <v>2</v>
       </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
-      </c>
       <c r="S20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U20">
-        <v>0.7111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V20">
         <v>5</v>
@@ -2335,31 +2335,36 @@
       <c r="W20">
         <v>1</v>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Chewuch River Thirtymile 02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2378,28 +2383,28 @@
         </is>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O21">
         <v>3</v>
@@ -2408,46 +2413,41 @@
         <v>3</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="U21">
-        <v>0.6666666666666666</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V21">
         <v>5</v>
       </c>
       <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2503,22 +2503,22 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U22">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2528,12 +2528,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2545,7 +2545,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2586,7 +2586,7 @@
         <v>5</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2595,28 +2595,28 @@
         <v>3</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>3</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>1</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="U23">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="V23">
         <v>5</v>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -2643,7 +2643,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2684,7 +2684,7 @@
         <v>5</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2693,28 +2693,28 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>3</v>
       </c>
       <c r="T24">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U24">
-        <v>0.7111111111111111</v>
+        <v>0.6</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2722,9 +2722,14 @@
       <c r="W24">
         <v>1</v>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -2736,7 +2741,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2780,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -2792,22 +2797,22 @@
         <v>3</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <v>3</v>
       </c>
       <c r="T25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U25">
-        <v>0.6666666666666666</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V25">
         <v>5</v>
@@ -2815,21 +2820,26 @@
       <c r="W25">
         <v>1</v>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Riparian</t>
+        </is>
+      </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2839,7 +2849,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2858,13 +2868,13 @@
         </is>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2885,22 +2895,22 @@
         <v>3</v>
       </c>
       <c r="P26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
       <c r="T26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U26">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2908,21 +2918,26 @@
       <c r="W26">
         <v>1</v>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Riparian</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2932,7 +2947,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2951,28 +2966,28 @@
         </is>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <v>5</v>
@@ -2990,32 +3005,37 @@
         <v>3</v>
       </c>
       <c r="T27">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U27">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V27">
         <v>5</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Off-Channel-Side-Channels</t>
+        </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3025,7 +3045,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3047,37 +3067,37 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>3</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q28">
         <v>3</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S28">
         <v>3</v>
@@ -3096,24 +3116,24 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3123,7 +3143,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3142,31 +3162,31 @@
         </is>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L29">
         <v>3</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <v>3</v>
@@ -3181,10 +3201,10 @@
         <v>3</v>
       </c>
       <c r="T29">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U29">
-        <v>0.6444444444444445</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3194,24 +3214,24 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3221,7 +3241,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3240,49 +3260,49 @@
         </is>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P30">
         <v>3</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="U30">
-        <v>0.4444444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="V30">
         <v>5</v>
@@ -3292,24 +3312,24 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mad River Lower 03</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3319,7 +3339,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3341,83 +3361,78 @@
         <v>3</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <v>3</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q31">
         <v>3</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U31">
-        <v>0.6444444444444445</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V31">
         <v>5</v>
       </c>
       <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3439,46 +3454,46 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T32">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="U32">
-        <v>0.4666666666666667</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V32">
         <v>5</v>
@@ -3488,34 +3503,34 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3534,49 +3549,49 @@
         </is>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T33">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="U33">
-        <v>0.4666666666666667</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V33">
         <v>5</v>
@@ -3586,34 +3601,34 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3632,49 +3647,49 @@
         </is>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
       <c r="R34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T34">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U34">
-        <v>0.6222222222222222</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V34">
         <v>5</v>
@@ -3684,24 +3699,24 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Alta Coulee 02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3711,7 +3726,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3733,19 +3748,19 @@
         <v>3</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M35">
         <v>3</v>
@@ -3754,25 +3769,25 @@
         <v>3</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>1</v>
       </c>
       <c r="R35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U35">
-        <v>0.5777777777777777</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V35">
         <v>5</v>
@@ -3782,24 +3797,24 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3809,7 +3824,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3828,49 +3843,49 @@
         </is>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <v>3</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U36">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V36">
         <v>5</v>
@@ -3880,24 +3895,24 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3907,7 +3922,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3926,16 +3941,16 @@
         </is>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3944,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -3962,13 +3977,13 @@
         <v>1</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U37">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V37">
         <v>5</v>
@@ -3978,24 +3993,24 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Methow River Alta Coulee 05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4005,7 +4020,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4060,13 +4075,13 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U38">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V38">
         <v>5</v>
@@ -4081,19 +4096,19 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4103,7 +4118,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4125,46 +4140,46 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>3</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U39">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V39">
         <v>5</v>
@@ -4174,34 +4189,34 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4223,10 +4238,10 @@
         <v>3</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40">
         <v>5</v>
@@ -4235,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -4244,25 +4259,25 @@
         <v>3</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P40">
         <v>3</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S40">
         <v>1</v>
       </c>
       <c r="T40">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="U40">
-        <v>0.5555555555555556</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4272,34 +4287,34 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4318,13 +4333,13 @@
         </is>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>3</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41">
         <v>5</v>
@@ -4336,31 +4351,31 @@
         <v>3</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>3</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P41">
         <v>3</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U41">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4370,34 +4385,34 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4416,13 +4431,13 @@
         </is>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -4434,68 +4449,68 @@
         <v>3</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q42">
         <v>3</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U42">
-        <v>0.5555555555555556</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V42">
         <v>5</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4514,28 +4529,28 @@
         </is>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43">
         <v>5</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43">
         <v>3</v>
@@ -4553,10 +4568,10 @@
         <v>1</v>
       </c>
       <c r="T43">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U43">
-        <v>0.4222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4566,34 +4581,34 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4627,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -4636,25 +4651,25 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>1</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U44">
-        <v>0.4222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4664,34 +4679,34 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4710,16 +4725,16 @@
         </is>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4728,31 +4743,31 @@
         <v>3</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T45">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U45">
-        <v>0.4666666666666667</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4762,34 +4777,34 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4808,43 +4823,43 @@
         </is>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>3</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q46">
         <v>1</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T46">
         <v>21</v>
@@ -4860,34 +4875,34 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4915,19 +4930,19 @@
         <v>3</v>
       </c>
       <c r="J47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>3</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <v>3</v>
@@ -4942,13 +4957,13 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T47">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U47">
-        <v>0.4666666666666667</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V47">
         <v>5</v>
@@ -4958,34 +4973,34 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5004,46 +5019,49 @@
         </is>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>3</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T48">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U48">
-        <v>0.6</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -5053,24 +5071,24 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5080,7 +5098,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5123,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -5135,13 +5153,13 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U49">
-        <v>0.3555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="V49">
         <v>5</v>
@@ -5151,24 +5169,24 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Methow River McFarland 02</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5178,7 +5196,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5197,43 +5215,43 @@
         </is>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T50">
         <v>21</v>
@@ -5249,24 +5267,24 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Methow River McFarland 03</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5276,7 +5294,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5295,25 +5313,25 @@
         </is>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N51">
         <v>3</v>
@@ -5322,22 +5340,22 @@
         <v>1</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T51">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="U51">
-        <v>0.3777777777777778</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V51">
         <v>5</v>
@@ -5347,24 +5365,24 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Methow River McFarland 04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5374,7 +5392,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5393,25 +5411,25 @@
         </is>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N52">
         <v>3</v>
@@ -5420,22 +5438,22 @@
         <v>1</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>1</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T52">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="U52">
-        <v>0.3777777777777778</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V52">
         <v>5</v>
@@ -5445,24 +5463,24 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5472,7 +5490,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5491,31 +5509,31 @@
         </is>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53">
         <v>3</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -5527,13 +5545,13 @@
         <v>1</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T53">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U53">
-        <v>0.3333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V53">
         <v>5</v>
@@ -5543,24 +5561,24 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5570,7 +5588,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5601,10 +5619,10 @@
         <v>3</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M54">
         <v>3</v>
@@ -5613,25 +5631,25 @@
         <v>3</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T54">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U54">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V54">
         <v>5</v>
@@ -5641,34 +5659,34 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5690,16 +5708,16 @@
         <v>3</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J55">
         <v>5</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L55">
         <v>3</v>
@@ -5708,65 +5726,65 @@
         <v>3</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="U55">
-        <v>0.5111111111111111</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V55">
         <v>5</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5788,22 +5806,22 @@
         <v>3</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -5812,13 +5830,13 @@
         <v>1</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q56">
         <v>1</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -5837,34 +5855,34 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5895,37 +5913,37 @@
         <v>5</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M57">
         <v>3</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P57">
         <v>3</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S57">
         <v>1</v>
       </c>
       <c r="T57">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U57">
-        <v>0.5777777777777777</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5935,34 +5953,34 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5990,31 +6008,31 @@
         <v>3</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M58">
         <v>3</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -6033,34 +6051,34 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6079,49 +6097,49 @@
         </is>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59">
         <v>5</v>
       </c>
       <c r="K59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>3</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P59">
         <v>3</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S59">
         <v>1</v>
       </c>
       <c r="T59">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="U59">
-        <v>0.7333333333333333</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -6131,34 +6149,34 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6177,49 +6195,49 @@
         </is>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60">
         <v>5</v>
       </c>
       <c r="K60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="U60">
-        <v>0.7777777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -6229,34 +6247,34 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6275,13 +6293,13 @@
         </is>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61">
         <v>3</v>
@@ -6290,34 +6308,34 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61">
         <v>3</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="U61">
-        <v>0.6222222222222222</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6327,34 +6345,34 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -6373,13 +6391,13 @@
         </is>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62">
         <v>3</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -6388,34 +6406,34 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>3</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="U62">
-        <v>0.6222222222222222</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6425,34 +6443,34 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6471,13 +6489,13 @@
         </is>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J63">
         <v>3</v>
@@ -6486,34 +6504,34 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="U63">
-        <v>0.6222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6523,34 +6541,34 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6578,10 +6596,10 @@
         <v>3</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
         <v>5</v>
@@ -6593,19 +6611,16 @@
         <v>3</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P64">
-        <v>5</v>
-      </c>
-      <c r="Q64">
         <v>3</v>
       </c>
       <c r="R64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T64">
         <v>27</v>
@@ -6621,24 +6636,24 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6648,7 +6663,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6667,13 +6682,13 @@
         </is>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -6682,34 +6697,34 @@
         <v>1</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="U65">
-        <v>0.6</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6719,34 +6734,34 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6765,22 +6780,22 @@
         </is>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>5</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -6789,13 +6804,13 @@
         <v>3</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>2</v>
@@ -6804,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="T66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U66">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6817,34 +6832,34 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6863,13 +6878,13 @@
         </is>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67">
         <v>5</v>
@@ -6878,13 +6893,13 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -6893,19 +6908,19 @@
         <v>3</v>
       </c>
       <c r="Q67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U67">
-        <v>0.4888888888888889</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6915,34 +6930,34 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6961,49 +6976,49 @@
         </is>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N68">
         <v>3</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P68">
         <v>3</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="U68">
-        <v>0.6222222222222222</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -7013,34 +7028,34 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7074,34 +7089,34 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <v>3</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P69">
         <v>3</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="U69">
-        <v>0.5777777777777777</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7111,34 +7126,34 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7157,49 +7172,49 @@
         </is>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O70">
         <v>3</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U70">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7209,34 +7224,34 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7258,46 +7273,46 @@
         <v>3</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P71">
         <v>3</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U71">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7307,34 +7322,34 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7356,10 +7371,10 @@
         <v>3</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72">
         <v>5</v>
@@ -7368,25 +7383,25 @@
         <v>1</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72">
         <v>3</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <v>1</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -7405,34 +7420,34 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -7451,13 +7466,13 @@
         </is>
       </c>
       <c r="G73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H73">
         <v>5</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73">
         <v>3</v>
@@ -7466,34 +7481,34 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="U73">
-        <v>0.5777777777777777</v>
+        <v>0.4</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7503,34 +7518,34 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -7549,16 +7564,16 @@
         </is>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7567,10 +7582,10 @@
         <v>5</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O74">
         <v>3</v>
@@ -7588,10 +7603,10 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U74">
-        <v>0.6666666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7601,34 +7616,34 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -7647,16 +7662,16 @@
         </is>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -7699,34 +7714,34 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7745,165 +7760,2801 @@
         </is>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76">
         <v>5</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
         <v>3</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="U76">
-        <v>0.4666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V76">
         <v>5</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>Twisp River Middle 02</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
+      </c>
+      <c r="P77">
+        <v>3</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>35</v>
+      </c>
+      <c r="U77">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V77">
+        <v>5</v>
+      </c>
+      <c r="W77">
+        <v>3</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 03</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <v>3</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>26</v>
+      </c>
+      <c r="U78">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V78">
+        <v>5</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 04</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
+      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>3</v>
+      </c>
+      <c r="P79">
+        <v>3</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>3</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>26</v>
+      </c>
+      <c r="U79">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V79">
+        <v>5</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 05</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+      <c r="P80">
+        <v>3</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>3</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>26</v>
+      </c>
+      <c r="U80">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V80">
+        <v>5</v>
+      </c>
+      <c r="W80">
+        <v>1</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 06</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
+      </c>
+      <c r="P81">
+        <v>5</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>3</v>
+      </c>
+      <c r="S81">
+        <v>3</v>
+      </c>
+      <c r="T81">
+        <v>35</v>
+      </c>
+      <c r="U81">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V81">
+        <v>5</v>
+      </c>
+      <c r="W81">
+        <v>3</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 07</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>5</v>
+      </c>
+      <c r="Q82">
+        <v>3</v>
+      </c>
+      <c r="R82">
+        <v>4</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>30</v>
+      </c>
+      <c r="U82">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V82">
+        <v>5</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 08</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>5</v>
+      </c>
+      <c r="Q83">
+        <v>3</v>
+      </c>
+      <c r="R83">
+        <v>4</v>
+      </c>
+      <c r="S83">
+        <v>5</v>
+      </c>
+      <c r="T83">
+        <v>30</v>
+      </c>
+      <c r="U83">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V83">
+        <v>5</v>
+      </c>
+      <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 02</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84">
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <v>5</v>
+      </c>
+      <c r="Q84">
+        <v>3</v>
+      </c>
+      <c r="R84">
+        <v>4</v>
+      </c>
+      <c r="S84">
+        <v>3</v>
+      </c>
+      <c r="T84">
+        <v>34</v>
+      </c>
+      <c r="U84">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="V84">
+        <v>5</v>
+      </c>
+      <c r="W84">
+        <v>3</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 03</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>5</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>3</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>3</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>29</v>
+      </c>
+      <c r="U85">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="V85">
+        <v>5</v>
+      </c>
+      <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 04</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>3</v>
+      </c>
+      <c r="T86">
+        <v>29</v>
+      </c>
+      <c r="U86">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="V86">
+        <v>5</v>
+      </c>
+      <c r="W86">
+        <v>1</v>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 05</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>5</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>3</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>3</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>3</v>
+      </c>
+      <c r="T87">
+        <v>20</v>
+      </c>
+      <c r="U87">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="V87">
+        <v>5</v>
+      </c>
+      <c r="W87">
+        <v>1</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 06</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>3</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>3</v>
+      </c>
+      <c r="T88">
+        <v>22</v>
+      </c>
+      <c r="U88">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V88">
+        <v>5</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 07</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>3</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>3</v>
+      </c>
+      <c r="T89">
+        <v>22</v>
+      </c>
+      <c r="U89">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V89">
+        <v>5</v>
+      </c>
+      <c r="W89">
+        <v>1</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 08</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>22</v>
+      </c>
+      <c r="U90">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V90">
+        <v>5</v>
+      </c>
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 09</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>3</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>22</v>
+      </c>
+      <c r="U91">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V91">
+        <v>5</v>
+      </c>
+      <c r="W91">
+        <v>1</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>Riparian</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 10</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>4</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>28</v>
+      </c>
+      <c r="U92">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="V92">
+        <v>5</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 11</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>5</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
+        <v>3</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>25</v>
+      </c>
+      <c r="U93">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="V93">
+        <v>5</v>
+      </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 12</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>5</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <v>3</v>
+      </c>
+      <c r="P94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>26</v>
+      </c>
+      <c r="U94">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V94">
+        <v>5</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 01</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>5</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>3</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>22</v>
+      </c>
+      <c r="U95">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V95">
+        <v>5</v>
+      </c>
+      <c r="W95">
+        <v>1</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 02</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96">
+        <v>5</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>3</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>26</v>
+      </c>
+      <c r="U96">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V96">
+        <v>5</v>
+      </c>
+      <c r="W96">
+        <v>1</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 03</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>4</v>
+      </c>
+      <c r="J97">
+        <v>5</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>3</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>22</v>
+      </c>
+      <c r="U97">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V97">
+        <v>5</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 04</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+      <c r="J98">
+        <v>3</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>5</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98">
+        <v>3</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>25</v>
+      </c>
+      <c r="U98">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="V98">
+        <v>5</v>
+      </c>
+      <c r="W98">
+        <v>1</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 06</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>5</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>3</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>27</v>
+      </c>
+      <c r="U99">
+        <v>0.6</v>
+      </c>
+      <c r="V99">
+        <v>5</v>
+      </c>
+      <c r="W99">
+        <v>1</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Wenatchee River Nahahum 07</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>5</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>21</v>
+      </c>
+      <c r="U100">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V100">
+        <v>5</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 01</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>5</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>21</v>
+      </c>
+      <c r="U101">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V101">
+        <v>5</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 02</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>5</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>22</v>
+      </c>
+      <c r="U102">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V102">
+        <v>5</v>
+      </c>
+      <c r="W102">
+        <v>1</v>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 03</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>5</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="T103">
+        <v>22</v>
+      </c>
+      <c r="U103">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V103">
+        <v>5</v>
+      </c>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
           <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G77">
-        <v>5</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="I77">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
         <v>4</v>
       </c>
-      <c r="J77">
-        <v>5</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-      <c r="O77">
-        <v>3</v>
-      </c>
-      <c r="P77">
-        <v>3</v>
-      </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-      <c r="R77">
-        <v>2</v>
-      </c>
-      <c r="S77">
-        <v>1</v>
-      </c>
-      <c r="T77">
-        <v>27</v>
-      </c>
-      <c r="U77">
-        <v>0.6</v>
-      </c>
-      <c r="V77">
-        <v>5</v>
-      </c>
-      <c r="W77">
-        <v>1</v>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
+      <c r="J104">
+        <v>5</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>26</v>
+      </c>
+      <c r="U104">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V104">
+        <v>5</v>
+      </c>
+      <c r="W104">
+        <v>1</v>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr">
         <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
